--- a/biology/Zoologie/Echimyinae/Echimyinae.xlsx
+++ b/biology/Zoologie/Echimyinae/Echimyinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Echimyinae sont une sous-famille de rongeurs de la famille des Echimyidae, qui comprend notamment des rats épineux. Sa taxinomie a fait l'objet d'une révision par Louise Emmons en 2005[1] que les bases de référence n'ont pas encore intégrée[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Echimyinae sont une sous-famille de rongeurs de la famille des Echimyidae, qui comprend notamment des rats épineux. Sa taxinomie a fait l'objet d'une révision par Louise Emmons en 2005 que les bases de référence n'ont pas encore intégrée.
 Cette sous-famille a été décrite pour la première fois en 1825 par le zoologiste britannique John Edward Gray (1800-1875).
 </t>
         </is>
@@ -512,28 +524,64 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">genre Callistomys Emmons &amp; Vucetich, 1998. Une seule espèce : Callistomys pictus
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>genre Callistomys Emmons &amp; Vucetich, 1998. Une seule espèce : Callistomys pictus
 genre Diplomys Thomas, 1916
 genre Echimys G. Cuvier, 1809
 genre Isothrix Wagner, 1845
 genre Makalata Husson, 1978
-genre Pattonomys Emmons, 2005[3]
+genre Pattonomys Emmons, 2005
 genre Phyllomys Lund, 1839
-genre Santamartamys Emmons, 2005[4]. Une seule espèce : Santamartamys rufodorsalis
-Liste des genres et espèces
-Selon Mammal Species of the World (version 3, 2005)  (18 novembre 2013)[5] et ITIS      (18 novembre 2013)[6]  :
+genre Santamartamys Emmons, 2005. Une seule espèce : Santamartamys rufodorsalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Echimyinae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Echimyinae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des genres et espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Mammal Species of the World (version 3, 2005)  (18 novembre 2013) et ITIS      (18 novembre 2013)  :
 genre Callistomys
 Callistomys pictus
 genre Diplomys
 Diplomys caniceps
 Diplomys labilis
-Diplomys rufodorsalis - Déplacé dans le genre monotypique Santamartamys Emmons, 2005[4]
+Diplomys rufodorsalis - Déplacé dans le genre monotypique Santamartamys Emmons, 2005
 genre Echimys
 Echimys chrysurus
 Echimys saturnus
-Echimys semivillosus - Déplacé dans le genre Pattonomys Emmons, 2005[7]
+Echimys semivillosus - Déplacé dans le genre Pattonomys Emmons, 2005
 genre Isothrix
 Isothrix bistriata
 Isothrix negrensis
@@ -544,7 +592,7 @@
 Makalata grandis
 Makalata macrura
 Makalata obscura
-Makalata occasius - Déplacé dans le genre Pattonomys Emmons, 2005[3]
+Makalata occasius - Déplacé dans le genre Pattonomys Emmons, 2005
 Makalata rhipidura
 genre Phyllomys
 Phyllomys blainvillii
